--- a/Study Materials/ParticipantData/User14.xlsx
+++ b/Study Materials/ParticipantData/User14.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="3580" yWindow="-80" windowWidth="21120" windowHeight="13720" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="-80" yWindow="80" windowWidth="25520" windowHeight="13760" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="raw" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,249 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="201">
+  <si>
+    <t>I'm not going to go back in and start setting groups up now. "I like to do as little 'work' as possible on facebook" so If it's not working I'll just go back and cancel it out.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Having the texting readily available was good but made me fixate on it more.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Private from people who are not my friends. Photos are friends only. Don't want bosses, employers, or familymembers I haven't added to see these. Lots of people wanted to follow my trip to italy. My friend showed me how to make a default "share with except for this group"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Groups are pretty useful, especially for assignments. It's sort of like having a home page for the stuff you send out. The orientation group housing is really helpful. Groups are more formal, less casual</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>It has made me think more about posting things. I think I'm thinking more about posting to facebook than I usually would. I think some past posts apply to this more than the posts this week do. I don't think I posted more than I usually would. It is a little annoying to think about "do I want to post this or do I not want to post this"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CMU students, people in my classes and friends at CMU. Kinda applies to everyone. People in my classes would resonate in particular. Separate extracurricular life from classroom. I'm more reserved in the classroom than when I go out for my girlfriends. "I think linked in because I can choose friend, colleague, etc, so if they don't make the friend list then I probably don't want to share with them the same way"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>no</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3 - it doesn't really make a difference. It wasn't about the audience, I didn't want to break what I was doing to get on facebook</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>If it's not convenient. Sometimes I filter things "mom, school friends, etc"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wanting the interaction. Wanting to share and get feedback on my ideas</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Facebook is the goto, G+ (check but don't use), linked in, twitter (don't use)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>time of day + mood…wasn't worth it They were the kind of people that would care about it the most</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>**missed this**</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Just really frustrated</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">I thought people could relate, social support, people helping out, etc. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>I got over it on my own. Perpetuating stress, being whiny. The study was my problem, I didn't want to put it on somebody else's shoulders.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reaching out for someone to talk or say something to me. Just somebody who was around/paying attention</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>It didn't really cross my mind</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>More hours in the day wouldn't really help us</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Another reach out and get some sympathy, but with a lighter tone</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">People sort of will come to this on their own, or they don't really care. Didn't really want to bother to post. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">We aren't that close that we can be casual with each other. We don't have each other's cell phone numbers. "I don't want to say it's a forced relationship" … don't want to discuss political debates with them…don't want to post anything that is too radical because I don't want to disagree. I don't like to censor. I wouldn't post it on my mom's wall where I know they'll check. I do have family groups but I don't use them. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Talking with my family is different than talking with my friends. "My roommates tell me that they know when I'm on the phone with my mom or my grandparents because of my tone of voice"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4 - main point is that I was too tired</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>It has a bit of a negative undertone and I don't like to be too whiny on Facebook and I don't like when other people are.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>People use facebook to procrastinate, so it is good to post about things that bring us together. It even applies to people from back home</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>afraid of people that say "suck it up, don't be whiny"…"I couldn't think of anybody in particular, but you never know"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 - because they are college students and I don't want to pepetuate this negative affect</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>I don't need people to get me things for Christmas anymore</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Trying to be careful about the wording - don't want to give the wrong impression or make somebody think about it the wrong way</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Funny cow-based economics lesson</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Funny, I got a rise out of it so I thought other people might. It was pretty smart.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Copied and pasted it, saw that I had already posted a lot of things, so only shared it with my boyfriend - it was also too long</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Roommates + boyfriend: because they were around &amp; they would enjoy it. At least those people I figured would really want to see it.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>It was pretty accessible content, so anyone could see it.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5 - if I had been able to it would have been a quick thing &amp; everyone would have enjoyed it</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A lot of my posts are about CMU and grades and professors</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Sharing in this feeling of being exhausted and frustrated with finals. Ultimately decided not to bother. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"My roommates + boyfriend share the pain of cleaning the apartment" … "I'll tag them sometimes, but we see each other enough that we interact offline. No "group" for them.  If I want to interact with them.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3 - technical reason</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Got latte and a cup of water, too much stuff…drinking water and coffee back and forth. Thought about the "double-fisting" viral video</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>It could have been funny</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>You had to be there. This was too personal to go up there "it was a me thing". Also, hands were full</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Don't really need anybody to see it. "Probably my mom would wonder what it was" …most people would pass it by pretty easily. Don't mind Mom seeing stuff, we're pretty close</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>It doesn't really apply outside of the one girl and the narrow group of friends</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5 - But not sure because the video was so long</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Race coul be an issue. Some facebook friends are pretty random, she doesn't want to feel responsible for the comments from these other people</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Woot.com was selling a Scooba</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Show exasperation for cleaning &amp; possible gift idea</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Home.woot.com changes every 24 hours, so the site would have changed, and it wasn't so important that she would look for the product link…"I had even copied it into the wall post box"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4-because it was such random content, so others might not appreciate it in their feed</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>random content can be good to share You had to be there for it to be funny</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Debate that get sparks often at CMU, would want to spark it on facebook</t>
+  </si>
+  <si>
+    <t>Didn't see a link for the clip, wasn't as interesting as I was hoping it might be</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>piracy debate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CMU students - we've talked about it before. I don't reall have a group for CMU students in particular</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Don't care about the feedback from non-cmu students. Not interested in non-data-back ramblings</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Cheering &amp; chanting…lots of energy. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Whenever I take a video I think about "should I post it on Facebook"</t>
+  </si>
+  <si>
+    <t>Directed sharing, it is mostly for "her", not really important to others</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Close friends that know this friend - seeing someone they cared about doing something she was proud to be doing</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
   <si>
     <t>5.  Do you find FB friend grouping and/or Google+ circles useful?</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -48,6 +290,22 @@
   </si>
   <si>
     <t>CIC 2214</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fb - yes, use them pretty regularly, don't use G+ very often, but set up circles. FB lists for managing info for housing area (events that only matter to that group)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>If I could have found a link to it I probably would have posted it</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>it was funny, people can relate to it</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>not worth the energy</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1032,64 +1290,64 @@
   <sheetData>
     <row r="1" spans="1:20">
       <c r="A1" s="1" t="s">
-        <v>100</v>
+        <v>165</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>82</v>
+        <v>147</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>83</v>
+        <v>148</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>84</v>
+        <v>149</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>85</v>
+        <v>150</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>86</v>
+        <v>151</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>87</v>
+        <v>152</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>88</v>
+        <v>153</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>89</v>
+        <v>154</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>90</v>
+        <v>155</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>91</v>
+        <v>156</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>92</v>
+        <v>157</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>93</v>
+        <v>158</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>93</v>
+        <v>158</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>94</v>
+        <v>159</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>95</v>
+        <v>160</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>96</v>
+        <v>161</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>97</v>
+        <v>162</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>98</v>
+        <v>163</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>99</v>
+        <v>164</v>
       </c>
     </row>
     <row r="2" spans="1:20" ht="15">
@@ -1103,22 +1361,22 @@
         <v>39417.680555555555</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>101</v>
+        <v>166</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>102</v>
+        <v>167</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>103</v>
+        <v>168</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>104</v>
+        <v>169</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>105</v>
+        <v>170</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>106</v>
+        <v>171</v>
       </c>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
@@ -1132,13 +1390,13 @@
         <v>39418.063194444447</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>107</v>
+        <v>172</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>108</v>
+        <v>173</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>109</v>
+        <v>174</v>
       </c>
       <c r="T2" s="3">
         <v>39417.472222222219</v>
@@ -1155,22 +1413,22 @@
         <v>39417.681250000001</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>110</v>
+        <v>175</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>111</v>
+        <v>176</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>103</v>
+        <v>168</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>112</v>
+        <v>177</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>105</v>
+        <v>170</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>113</v>
+        <v>178</v>
       </c>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
@@ -1184,13 +1442,13 @@
         <v>39418.064583333333</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>107</v>
+        <v>172</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>108</v>
+        <v>173</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>114</v>
+        <v>179</v>
       </c>
       <c r="T3" s="3">
         <v>39417.472916666666</v>
@@ -1207,22 +1465,22 @@
         <v>39419.043055555558</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>115</v>
+        <v>180</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>116</v>
+        <v>181</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>116</v>
+        <v>181</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>116</v>
+        <v>181</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>116</v>
+        <v>181</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>116</v>
+        <v>181</v>
       </c>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
@@ -1236,13 +1494,13 @@
         <v>39421.219444444447</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>107</v>
+        <v>172</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>108</v>
+        <v>173</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>117</v>
+        <v>182</v>
       </c>
       <c r="T4" s="3">
         <v>39418.834722222222</v>
@@ -1259,22 +1517,22 @@
         <v>39418.208333333336</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>118</v>
+        <v>183</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>119</v>
+        <v>184</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>120</v>
+        <v>185</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>121</v>
+        <v>186</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>122</v>
+        <v>187</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>123</v>
+        <v>188</v>
       </c>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
@@ -1288,13 +1546,13 @@
         <v>39419.045138888891</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>107</v>
+        <v>172</v>
       </c>
       <c r="R5" s="2" t="s">
-        <v>108</v>
+        <v>173</v>
       </c>
       <c r="S5" s="2" t="s">
-        <v>124</v>
+        <v>189</v>
       </c>
       <c r="T5" s="3">
         <v>39418.208333333336</v>
@@ -1311,22 +1569,22 @@
         <v>39420.042361111111</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>125</v>
+        <v>190</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>126</v>
+        <v>191</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>103</v>
+        <v>168</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>127</v>
+        <v>192</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>128</v>
+        <v>193</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>129</v>
+        <v>194</v>
       </c>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
@@ -1340,13 +1598,13 @@
         <v>39420.045138888891</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>107</v>
+        <v>172</v>
       </c>
       <c r="R6" s="2" t="s">
-        <v>108</v>
+        <v>173</v>
       </c>
       <c r="S6" s="2" t="s">
-        <v>130</v>
+        <v>195</v>
       </c>
       <c r="T6" s="3">
         <v>39419.834027777775</v>
@@ -1363,22 +1621,22 @@
         <v>39420.75277777778</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>131</v>
+        <v>196</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>132</v>
+        <v>197</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>133</v>
+        <v>198</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>133</v>
+        <v>198</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>134</v>
+        <v>199</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>135</v>
+        <v>200</v>
       </c>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
@@ -1392,13 +1650,13 @@
         <v>39421.21597222222</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>107</v>
+        <v>172</v>
       </c>
       <c r="R7" s="2" t="s">
-        <v>108</v>
+        <v>173</v>
       </c>
       <c r="S7" s="2" t="s">
-        <v>50</v>
+        <v>115</v>
       </c>
       <c r="T7" s="3">
         <v>39420.544444444444</v>
@@ -1415,22 +1673,22 @@
         <v>39421.043749999997</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>51</v>
+        <v>116</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>52</v>
+        <v>117</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>133</v>
+        <v>198</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>53</v>
+        <v>118</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>54</v>
+        <v>119</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>55</v>
+        <v>120</v>
       </c>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
@@ -1444,13 +1702,13 @@
         <v>39421.216666666667</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>107</v>
+        <v>172</v>
       </c>
       <c r="R8" s="2" t="s">
-        <v>108</v>
+        <v>173</v>
       </c>
       <c r="S8" s="2" t="s">
-        <v>56</v>
+        <v>121</v>
       </c>
       <c r="T8" s="3">
         <v>39420.835416666669</v>
@@ -1467,22 +1725,22 @@
         <v>39421.105555555558</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>57</v>
+        <v>122</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>58</v>
+        <v>123</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>133</v>
+        <v>198</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>59</v>
+        <v>124</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>54</v>
+        <v>119</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>60</v>
+        <v>125</v>
       </c>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
@@ -1496,13 +1754,13 @@
         <v>39421.218055555553</v>
       </c>
       <c r="Q9" s="2" t="s">
-        <v>107</v>
+        <v>172</v>
       </c>
       <c r="R9" s="2" t="s">
-        <v>108</v>
+        <v>173</v>
       </c>
       <c r="S9" s="2" t="s">
-        <v>61</v>
+        <v>126</v>
       </c>
       <c r="T9" s="3">
         <v>39420.897222222222</v>
@@ -1519,22 +1777,22 @@
         <v>39421.105555555558</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>62</v>
+        <v>127</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>116</v>
+        <v>181</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>116</v>
+        <v>181</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>116</v>
+        <v>181</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>116</v>
+        <v>181</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>116</v>
+        <v>181</v>
       </c>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
@@ -1548,13 +1806,13 @@
         <v>39421.21875</v>
       </c>
       <c r="Q10" s="2" t="s">
-        <v>107</v>
+        <v>172</v>
       </c>
       <c r="R10" s="2" t="s">
-        <v>108</v>
+        <v>173</v>
       </c>
       <c r="S10" s="2" t="s">
-        <v>63</v>
+        <v>128</v>
       </c>
       <c r="T10" s="3">
         <v>39420.897222222222</v>
@@ -1571,22 +1829,22 @@
         <v>39422.136111111111</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>64</v>
+        <v>129</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>65</v>
+        <v>130</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>133</v>
+        <v>198</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>66</v>
+        <v>131</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>105</v>
+        <v>170</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>67</v>
+        <v>132</v>
       </c>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
@@ -1600,13 +1858,13 @@
         <v>39422.136805555558</v>
       </c>
       <c r="Q11" s="2" t="s">
-        <v>107</v>
+        <v>172</v>
       </c>
       <c r="R11" s="2" t="s">
-        <v>108</v>
+        <v>173</v>
       </c>
       <c r="S11" s="2" t="s">
-        <v>68</v>
+        <v>133</v>
       </c>
       <c r="T11" s="3">
         <v>39421.927777777775</v>
@@ -1623,22 +1881,22 @@
         <v>39423.115972222222</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>69</v>
+        <v>134</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>70</v>
+        <v>135</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>71</v>
+        <v>136</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>133</v>
+        <v>198</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>72</v>
+        <v>137</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>73</v>
+        <v>138</v>
       </c>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
@@ -1652,13 +1910,13 @@
         <v>39423.190972222219</v>
       </c>
       <c r="Q12" s="2" t="s">
-        <v>107</v>
+        <v>172</v>
       </c>
       <c r="R12" s="2" t="s">
-        <v>108</v>
+        <v>173</v>
       </c>
       <c r="S12" s="2" t="s">
-        <v>74</v>
+        <v>139</v>
       </c>
       <c r="T12" s="3">
         <v>39422.907638888886</v>
@@ -1675,7 +1933,7 @@
         <v>39423.208333333336</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>118</v>
+        <v>183</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
@@ -1683,13 +1941,13 @@
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
       <c r="J13" s="4" t="s">
-        <v>75</v>
+        <v>140</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>76</v>
+        <v>141</v>
       </c>
       <c r="L13" s="4" t="s">
-        <v>77</v>
+        <v>142</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -1700,13 +1958,13 @@
         <v>39424.436805555553</v>
       </c>
       <c r="Q13" s="2" t="s">
-        <v>107</v>
+        <v>172</v>
       </c>
       <c r="R13" s="2" t="s">
-        <v>78</v>
+        <v>143</v>
       </c>
       <c r="S13" s="4" t="s">
-        <v>79</v>
+        <v>144</v>
       </c>
       <c r="T13" s="3">
         <v>39423.208333333336</v>
@@ -1723,7 +1981,7 @@
         <v>39424.53125</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>80</v>
+        <v>145</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
@@ -1742,10 +2000,10 @@
         <v>39424.53125</v>
       </c>
       <c r="Q14" s="2" t="s">
-        <v>81</v>
+        <v>146</v>
       </c>
       <c r="R14" s="2" t="s">
-        <v>108</v>
+        <v>173</v>
       </c>
       <c r="S14" s="2"/>
       <c r="T14" s="3">
@@ -1766,10 +2024,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+  <sheetPr enableFormatConditionsCalculation="0">
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:G12"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -1786,34 +2047,34 @@
   <sheetData>
     <row r="1" spans="1:10" ht="14" thickBot="1">
       <c r="A1" s="5" t="s">
-        <v>100</v>
+        <v>165</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>83</v>
+        <v>148</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>84</v>
+        <v>149</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>98</v>
+        <v>163</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>20</v>
+        <v>85</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>21</v>
+        <v>86</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>22</v>
+        <v>87</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>23</v>
+        <v>88</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>24</v>
+        <v>89</v>
       </c>
       <c r="J1" s="7" t="s">
-        <v>25</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="65">
@@ -1824,28 +2085,28 @@
         <v>39417.680555555555</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>17</v>
+        <v>82</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>109</v>
+        <v>174</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>102</v>
+        <v>167</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>104</v>
+        <v>169</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>103</v>
+        <v>168</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>105</v>
+        <v>170</v>
       </c>
       <c r="I2" s="10" t="s">
-        <v>106</v>
+        <v>171</v>
       </c>
       <c r="J2" s="11" t="s">
-        <v>26</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="52">
@@ -1856,28 +2117,28 @@
         <v>39417.681250000001</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>110</v>
+        <v>175</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>114</v>
+        <v>179</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>111</v>
+        <v>176</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>112</v>
+        <v>177</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>103</v>
+        <v>168</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>105</v>
+        <v>170</v>
       </c>
       <c r="I3" s="14" t="s">
-        <v>113</v>
+        <v>178</v>
       </c>
       <c r="J3" s="15" t="s">
-        <v>26</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="39">
@@ -1888,28 +2149,28 @@
         <v>39419.043055555558</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>18</v>
+        <v>83</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>19</v>
+        <v>84</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>116</v>
+        <v>181</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>116</v>
+        <v>181</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>116</v>
+        <v>181</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>116</v>
+        <v>181</v>
       </c>
       <c r="I4" s="14" t="s">
-        <v>116</v>
+        <v>181</v>
       </c>
       <c r="J4" s="15" t="s">
-        <v>27</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="117">
@@ -1920,28 +2181,28 @@
         <v>39418.208333333336</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>118</v>
+        <v>183</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>124</v>
+        <v>189</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>119</v>
+        <v>184</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>121</v>
+        <v>186</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>120</v>
+        <v>185</v>
       </c>
       <c r="H5" s="12" t="s">
-        <v>122</v>
+        <v>187</v>
       </c>
       <c r="I5" s="14" t="s">
-        <v>123</v>
+        <v>188</v>
       </c>
       <c r="J5" s="15" t="s">
-        <v>28</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="104">
@@ -1952,28 +2213,28 @@
         <v>39420.042361111111</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>125</v>
+        <v>190</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>130</v>
+        <v>195</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>126</v>
+        <v>191</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>127</v>
+        <v>192</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>103</v>
+        <v>168</v>
       </c>
       <c r="H6" s="12" t="s">
-        <v>128</v>
+        <v>193</v>
       </c>
       <c r="I6" s="14" t="s">
-        <v>129</v>
+        <v>194</v>
       </c>
       <c r="J6" s="15" t="s">
-        <v>29</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="78">
@@ -1984,28 +2245,28 @@
         <v>39420.75277777778</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>131</v>
+        <v>196</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>50</v>
+        <v>115</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>132</v>
+        <v>197</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>133</v>
+        <v>198</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>133</v>
+        <v>198</v>
       </c>
       <c r="H7" s="12" t="s">
-        <v>134</v>
+        <v>199</v>
       </c>
       <c r="I7" s="14" t="s">
-        <v>135</v>
+        <v>200</v>
       </c>
       <c r="J7" s="15" t="s">
-        <v>29</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="78">
@@ -2016,28 +2277,28 @@
         <v>39421.043749999997</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>51</v>
+        <v>116</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>56</v>
+        <v>121</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>52</v>
+        <v>117</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>53</v>
+        <v>118</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>133</v>
+        <v>198</v>
       </c>
       <c r="H8" s="12" t="s">
-        <v>54</v>
+        <v>119</v>
       </c>
       <c r="I8" s="14" t="s">
-        <v>55</v>
+        <v>120</v>
       </c>
       <c r="J8" s="15" t="s">
-        <v>30</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="78">
@@ -2048,28 +2309,28 @@
         <v>39421.105555555558</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>57</v>
+        <v>122</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>61</v>
+        <v>126</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>58</v>
+        <v>123</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>59</v>
+        <v>124</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>133</v>
+        <v>198</v>
       </c>
       <c r="H9" s="12" t="s">
-        <v>54</v>
+        <v>119</v>
       </c>
       <c r="I9" s="14" t="s">
-        <v>60</v>
+        <v>125</v>
       </c>
       <c r="J9" s="15" t="s">
-        <v>30</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="26">
@@ -2080,28 +2341,28 @@
         <v>39421.105555555558</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>62</v>
+        <v>127</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>63</v>
+        <v>128</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>116</v>
+        <v>181</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>116</v>
+        <v>181</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>116</v>
+        <v>181</v>
       </c>
       <c r="H10" s="12" t="s">
-        <v>116</v>
+        <v>181</v>
       </c>
       <c r="I10" s="14" t="s">
-        <v>116</v>
+        <v>181</v>
       </c>
       <c r="J10" s="15" t="s">
-        <v>30</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="65">
@@ -2112,28 +2373,28 @@
         <v>39422.136111111111</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>64</v>
+        <v>129</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>68</v>
+        <v>133</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>65</v>
+        <v>130</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>66</v>
+        <v>131</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>133</v>
+        <v>198</v>
       </c>
       <c r="H11" s="12" t="s">
-        <v>105</v>
+        <v>170</v>
       </c>
       <c r="I11" s="14" t="s">
-        <v>67</v>
+        <v>132</v>
       </c>
       <c r="J11" s="15" t="s">
-        <v>31</v>
+        <v>96</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="78">
@@ -2144,28 +2405,28 @@
         <v>39423.115972222222</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>69</v>
+        <v>134</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>74</v>
+        <v>139</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>70</v>
+        <v>135</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>133</v>
+        <v>198</v>
       </c>
       <c r="G12" s="12" t="s">
-        <v>71</v>
+        <v>136</v>
       </c>
       <c r="H12" s="12" t="s">
-        <v>72</v>
+        <v>137</v>
       </c>
       <c r="I12" s="14" t="s">
-        <v>73</v>
+        <v>138</v>
       </c>
       <c r="J12" s="15" t="s">
-        <v>32</v>
+        <v>97</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="52">
@@ -2176,7 +2437,7 @@
         <v>39424.53125</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>80</v>
+        <v>145</v>
       </c>
       <c r="D13" s="12"/>
       <c r="E13" s="12"/>
@@ -2185,11 +2446,666 @@
       <c r="H13" s="12"/>
       <c r="I13" s="14"/>
       <c r="J13" s="15" t="s">
-        <v>26</v>
+        <v>91</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="15">
       <c r="E14" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup scale="55" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+      <mx:PLV Mode="0" OnePage="0" WScale="100"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+  <dimension ref="A1:M39"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <cols>
+    <col min="1" max="1" width="36.85546875" customWidth="1"/>
+    <col min="2" max="2" width="29.28515625" customWidth="1"/>
+    <col min="3" max="3" width="3.85546875" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" customWidth="1"/>
+    <col min="7" max="7" width="24.140625" customWidth="1"/>
+    <col min="8" max="8" width="29.42578125" customWidth="1"/>
+    <col min="9" max="9" width="27.140625" customWidth="1"/>
+    <col min="10" max="10" width="24.5703125" customWidth="1"/>
+    <col min="11" max="11" width="21.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="A1" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="B2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="B3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="B4" s="17">
+        <v>39424</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="B5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="B6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="16" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" s="18" customFormat="1"/>
+    <row r="11" spans="1:13">
+      <c r="A11" s="19" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="B13" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="16"/>
+    </row>
+    <row r="15" spans="1:13" s="21" customFormat="1" ht="117">
+      <c r="A15" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="B15" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>165</v>
+      </c>
+      <c r="D15" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="E15" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="F15" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="G15" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="H15" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="I15" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="J15" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="K15" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="L15" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="M15" s="20" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" s="21" customFormat="1" ht="117">
+      <c r="A16" s="22" t="s">
+        <v>166</v>
+      </c>
+      <c r="B16" s="22" t="s">
+        <v>174</v>
+      </c>
+      <c r="C16" s="22">
+        <v>56</v>
+      </c>
+      <c r="D16" s="22" t="s">
+        <v>167</v>
+      </c>
+      <c r="E16" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="F16" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="G16" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="H16" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="I16" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="J16" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="K16" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="L16" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="M16" s="20"/>
+    </row>
+    <row r="17" spans="1:13" s="21" customFormat="1" ht="65">
+      <c r="A17" s="22" t="s">
+        <v>175</v>
+      </c>
+      <c r="B17" s="22" t="s">
+        <v>179</v>
+      </c>
+      <c r="C17" s="22">
+        <v>57</v>
+      </c>
+      <c r="D17" s="22" t="s">
+        <v>176</v>
+      </c>
+      <c r="E17" s="22" t="s">
+        <v>177</v>
+      </c>
+      <c r="F17" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="G17" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="H17" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="I17" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="J17" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="K17" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="L17" s="20">
+        <v>3</v>
+      </c>
+      <c r="M17" s="20"/>
+    </row>
+    <row r="18" spans="1:13" s="21" customFormat="1" ht="65">
+      <c r="A18" s="22" t="s">
+        <v>180</v>
+      </c>
+      <c r="B18" s="22" t="s">
+        <v>182</v>
+      </c>
+      <c r="C18" s="22">
+        <v>64</v>
+      </c>
+      <c r="D18" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="E18" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="F18" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="G18" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="H18" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="I18" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="J18" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="K18" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="L18" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="M18" s="20"/>
+    </row>
+    <row r="19" spans="1:13" s="21" customFormat="1" ht="78">
+      <c r="A19" s="22" t="s">
+        <v>183</v>
+      </c>
+      <c r="B19" s="22" t="s">
+        <v>189</v>
+      </c>
+      <c r="C19" s="22">
+        <v>65</v>
+      </c>
+      <c r="D19" s="22" t="s">
+        <v>184</v>
+      </c>
+      <c r="E19" s="22" t="s">
+        <v>186</v>
+      </c>
+      <c r="F19" s="22" t="s">
+        <v>185</v>
+      </c>
+      <c r="G19" s="20"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="J19" s="20"/>
+      <c r="K19" s="20"/>
+      <c r="L19" s="20"/>
+      <c r="M19" s="20"/>
+    </row>
+    <row r="20" spans="1:13" s="21" customFormat="1" ht="104">
+      <c r="A20" s="22" t="s">
+        <v>190</v>
+      </c>
+      <c r="B20" s="22" t="s">
+        <v>195</v>
+      </c>
+      <c r="C20" s="22">
+        <v>74</v>
+      </c>
+      <c r="D20" s="22" t="s">
+        <v>191</v>
+      </c>
+      <c r="E20" s="22" t="s">
+        <v>192</v>
+      </c>
+      <c r="F20" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="G20" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="H20" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="I20" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="J20" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="K20" s="20"/>
+      <c r="L20" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="M20" s="20"/>
+    </row>
+    <row r="21" spans="1:13" s="21" customFormat="1" ht="91">
+      <c r="A21" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="B21" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="C21" s="22">
+        <v>82</v>
+      </c>
+      <c r="D21" s="22" t="s">
+        <v>197</v>
+      </c>
+      <c r="E21" s="22" t="s">
+        <v>198</v>
+      </c>
+      <c r="F21" s="22" t="s">
+        <v>198</v>
+      </c>
+      <c r="G21" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="H21" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="I21" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="J21" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="K21" s="20"/>
+      <c r="L21" s="20"/>
+      <c r="M21" s="20"/>
+    </row>
+    <row r="22" spans="1:13" s="21" customFormat="1" ht="117">
+      <c r="A22" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="B22" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="C22" s="22">
+        <v>86</v>
+      </c>
+      <c r="D22" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="E22" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="F22" s="22" t="s">
+        <v>198</v>
+      </c>
+      <c r="G22" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="H22" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="I22" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="J22" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="K22" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="L22" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="M22" s="20"/>
+    </row>
+    <row r="23" spans="1:13" s="21" customFormat="1" ht="130">
+      <c r="A23" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="B23" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="C23" s="22">
+        <v>89</v>
+      </c>
+      <c r="D23" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="E23" s="22" t="s">
+        <v>124</v>
+      </c>
+      <c r="F23" s="22" t="s">
+        <v>198</v>
+      </c>
+      <c r="G23" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="H23" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="I23" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="J23" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="K23" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="L23" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="M23" s="20"/>
+    </row>
+    <row r="24" spans="1:13" s="21" customFormat="1">
+      <c r="A24" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="B24" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="C24" s="22">
+        <v>90</v>
+      </c>
+      <c r="D24" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="E24" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="F24" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="G24" s="20"/>
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="20"/>
+      <c r="K24" s="20"/>
+      <c r="L24" s="20"/>
+      <c r="M24" s="20"/>
+    </row>
+    <row r="25" spans="1:13" s="21" customFormat="1" ht="208">
+      <c r="A25" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="B25" s="22" t="s">
+        <v>133</v>
+      </c>
+      <c r="C25" s="22">
+        <v>99</v>
+      </c>
+      <c r="D25" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="E25" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="F25" s="22" t="s">
+        <v>198</v>
+      </c>
+      <c r="G25" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="J25" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="K25" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="L25" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="M25" s="20" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" s="21" customFormat="1" ht="65">
+      <c r="A26" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="B26" s="22" t="s">
+        <v>139</v>
+      </c>
+      <c r="C26" s="22">
+        <v>111</v>
+      </c>
+      <c r="D26" s="22" t="s">
+        <v>135</v>
+      </c>
+      <c r="E26" s="22" t="s">
+        <v>198</v>
+      </c>
+      <c r="F26" s="22" t="s">
+        <v>136</v>
+      </c>
+      <c r="G26" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="H26" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="I26" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="J26" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="K26" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="L26" s="20"/>
+      <c r="M26" s="20"/>
+    </row>
+    <row r="27" spans="1:13" s="21" customFormat="1" ht="208">
+      <c r="A27" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="B27" s="22"/>
+      <c r="C27" s="22">
+        <v>116</v>
+      </c>
+      <c r="D27" s="22"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="22"/>
+      <c r="G27" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="H27" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="I27" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="J27" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="K27" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="L27" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="M27" s="20"/>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28" s="21"/>
+    </row>
+    <row r="29" spans="1:13" s="18" customFormat="1">
+      <c r="A29" s="23"/>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="A30" s="21"/>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="B31" s="19" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" ht="52">
+      <c r="A32" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="B32" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="39">
+      <c r="A33" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="B33" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="26">
+      <c r="A34" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="B34" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="26">
+      <c r="A35" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="B35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="26">
+      <c r="A36" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="B36" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="26">
+      <c r="A37" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="B37" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="52">
+      <c r="A38" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="B38" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="B39" t="s">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -2201,517 +3117,4 @@
     </ext>
   </extLst>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
-  <dimension ref="A1:M39"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
-  <cols>
-    <col min="1" max="1" width="36.85546875" customWidth="1"/>
-    <col min="2" max="2" width="29.28515625" customWidth="1"/>
-    <col min="3" max="3" width="3.85546875" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" customWidth="1"/>
-    <col min="7" max="7" width="11" customWidth="1"/>
-    <col min="8" max="8" width="17.28515625" customWidth="1"/>
-    <col min="9" max="9" width="17.140625" customWidth="1"/>
-    <col min="10" max="10" width="24.5703125" customWidth="1"/>
-    <col min="11" max="11" width="21.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13">
-      <c r="A1" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="B1">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="B2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="A4" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="B4" s="17">
-        <v>39424</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
-      <c r="A5" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="A6" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="B6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="A7" s="16" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" s="18" customFormat="1"/>
-    <row r="11" spans="1:13">
-      <c r="A11" s="19" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
-      <c r="A13" s="16" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
-      <c r="A14" s="16"/>
-    </row>
-    <row r="15" spans="1:13" s="21" customFormat="1" ht="117">
-      <c r="A15" s="20" t="s">
-        <v>84</v>
-      </c>
-      <c r="B15" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="C15" s="20" t="s">
-        <v>100</v>
-      </c>
-      <c r="D15" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="E15" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="F15" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="G15" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="H15" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="I15" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="J15" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="K15" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="L15" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="M15" s="20" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" s="21" customFormat="1">
-      <c r="A16" s="22" t="s">
-        <v>101</v>
-      </c>
-      <c r="B16" s="22" t="s">
-        <v>109</v>
-      </c>
-      <c r="C16" s="22">
-        <v>56</v>
-      </c>
-      <c r="D16" s="22" t="s">
-        <v>102</v>
-      </c>
-      <c r="E16" s="22" t="s">
-        <v>104</v>
-      </c>
-      <c r="F16" s="22" t="s">
-        <v>103</v>
-      </c>
-      <c r="G16" s="20"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="20"/>
-      <c r="J16" s="20"/>
-      <c r="K16" s="20"/>
-      <c r="L16" s="20"/>
-      <c r="M16" s="20"/>
-    </row>
-    <row r="17" spans="1:13" s="21" customFormat="1">
-      <c r="A17" s="22" t="s">
-        <v>110</v>
-      </c>
-      <c r="B17" s="22" t="s">
-        <v>114</v>
-      </c>
-      <c r="C17" s="22">
-        <v>57</v>
-      </c>
-      <c r="D17" s="22" t="s">
-        <v>111</v>
-      </c>
-      <c r="E17" s="22" t="s">
-        <v>112</v>
-      </c>
-      <c r="F17" s="22" t="s">
-        <v>103</v>
-      </c>
-      <c r="G17" s="20"/>
-      <c r="H17" s="20"/>
-      <c r="I17" s="20"/>
-      <c r="J17" s="20"/>
-      <c r="K17" s="20"/>
-      <c r="L17" s="20"/>
-      <c r="M17" s="20"/>
-    </row>
-    <row r="18" spans="1:13" s="21" customFormat="1">
-      <c r="A18" s="22" t="s">
-        <v>115</v>
-      </c>
-      <c r="B18" s="22" t="s">
-        <v>117</v>
-      </c>
-      <c r="C18" s="22">
-        <v>64</v>
-      </c>
-      <c r="D18" s="22" t="s">
-        <v>116</v>
-      </c>
-      <c r="E18" s="22" t="s">
-        <v>116</v>
-      </c>
-      <c r="F18" s="22" t="s">
-        <v>116</v>
-      </c>
-      <c r="G18" s="20"/>
-      <c r="H18" s="20"/>
-      <c r="I18" s="20"/>
-      <c r="J18" s="20"/>
-      <c r="K18" s="20"/>
-      <c r="L18" s="20"/>
-      <c r="M18" s="20"/>
-    </row>
-    <row r="19" spans="1:13" s="21" customFormat="1">
-      <c r="A19" s="22" t="s">
-        <v>118</v>
-      </c>
-      <c r="B19" s="22" t="s">
-        <v>124</v>
-      </c>
-      <c r="C19" s="22">
-        <v>65</v>
-      </c>
-      <c r="D19" s="22" t="s">
-        <v>119</v>
-      </c>
-      <c r="E19" s="22" t="s">
-        <v>121</v>
-      </c>
-      <c r="F19" s="22" t="s">
-        <v>120</v>
-      </c>
-      <c r="G19" s="20"/>
-      <c r="H19" s="20"/>
-      <c r="I19" s="20"/>
-      <c r="J19" s="20"/>
-      <c r="K19" s="20"/>
-      <c r="L19" s="20"/>
-      <c r="M19" s="20"/>
-    </row>
-    <row r="20" spans="1:13" s="21" customFormat="1">
-      <c r="A20" s="22" t="s">
-        <v>125</v>
-      </c>
-      <c r="B20" s="22" t="s">
-        <v>130</v>
-      </c>
-      <c r="C20" s="22">
-        <v>74</v>
-      </c>
-      <c r="D20" s="22" t="s">
-        <v>126</v>
-      </c>
-      <c r="E20" s="22" t="s">
-        <v>127</v>
-      </c>
-      <c r="F20" s="22" t="s">
-        <v>103</v>
-      </c>
-      <c r="G20" s="20"/>
-      <c r="H20" s="20"/>
-      <c r="I20" s="20"/>
-      <c r="J20" s="20"/>
-      <c r="K20" s="20"/>
-      <c r="L20" s="20"/>
-      <c r="M20" s="20"/>
-    </row>
-    <row r="21" spans="1:13" s="21" customFormat="1">
-      <c r="A21" s="22" t="s">
-        <v>131</v>
-      </c>
-      <c r="B21" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="C21" s="22">
-        <v>82</v>
-      </c>
-      <c r="D21" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="E21" s="22" t="s">
-        <v>133</v>
-      </c>
-      <c r="F21" s="22" t="s">
-        <v>133</v>
-      </c>
-      <c r="G21" s="20"/>
-      <c r="H21" s="20"/>
-      <c r="I21" s="20"/>
-      <c r="J21" s="20"/>
-      <c r="K21" s="20"/>
-      <c r="L21" s="20"/>
-      <c r="M21" s="20"/>
-    </row>
-    <row r="22" spans="1:13" s="21" customFormat="1">
-      <c r="A22" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="B22" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="C22" s="22">
-        <v>86</v>
-      </c>
-      <c r="D22" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="E22" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="F22" s="22" t="s">
-        <v>133</v>
-      </c>
-      <c r="G22" s="20"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="20"/>
-      <c r="K22" s="20"/>
-      <c r="L22" s="20"/>
-      <c r="M22" s="20"/>
-    </row>
-    <row r="23" spans="1:13" s="21" customFormat="1">
-      <c r="A23" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="B23" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="C23" s="22">
-        <v>89</v>
-      </c>
-      <c r="D23" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="E23" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="F23" s="22" t="s">
-        <v>133</v>
-      </c>
-      <c r="G23" s="20"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="20"/>
-      <c r="K23" s="20"/>
-      <c r="L23" s="20"/>
-      <c r="M23" s="20"/>
-    </row>
-    <row r="24" spans="1:13" s="21" customFormat="1">
-      <c r="A24" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="B24" s="22" t="s">
-        <v>63</v>
-      </c>
-      <c r="C24" s="22">
-        <v>90</v>
-      </c>
-      <c r="D24" s="22" t="s">
-        <v>116</v>
-      </c>
-      <c r="E24" s="22" t="s">
-        <v>116</v>
-      </c>
-      <c r="F24" s="22" t="s">
-        <v>116</v>
-      </c>
-      <c r="G24" s="20"/>
-      <c r="H24" s="20"/>
-      <c r="I24" s="20"/>
-      <c r="J24" s="20"/>
-      <c r="K24" s="20"/>
-      <c r="L24" s="20"/>
-      <c r="M24" s="20"/>
-    </row>
-    <row r="25" spans="1:13" s="21" customFormat="1">
-      <c r="A25" s="22" t="s">
-        <v>64</v>
-      </c>
-      <c r="B25" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="C25" s="22">
-        <v>99</v>
-      </c>
-      <c r="D25" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="E25" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="F25" s="22" t="s">
-        <v>133</v>
-      </c>
-      <c r="G25" s="20"/>
-      <c r="H25" s="20"/>
-      <c r="I25" s="20"/>
-      <c r="J25" s="20"/>
-      <c r="K25" s="20"/>
-      <c r="L25" s="20"/>
-      <c r="M25" s="20"/>
-    </row>
-    <row r="26" spans="1:13" s="21" customFormat="1">
-      <c r="A26" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="B26" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="C26" s="22">
-        <v>111</v>
-      </c>
-      <c r="D26" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="E26" s="22" t="s">
-        <v>133</v>
-      </c>
-      <c r="F26" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="G26" s="20"/>
-      <c r="H26" s="20"/>
-      <c r="I26" s="20"/>
-      <c r="J26" s="20"/>
-      <c r="K26" s="20"/>
-      <c r="L26" s="20"/>
-      <c r="M26" s="20"/>
-    </row>
-    <row r="27" spans="1:13" s="21" customFormat="1">
-      <c r="A27" s="22" t="s">
-        <v>80</v>
-      </c>
-      <c r="B27" s="22"/>
-      <c r="C27" s="22">
-        <v>116</v>
-      </c>
-      <c r="D27" s="22"/>
-      <c r="E27" s="22"/>
-      <c r="F27" s="22"/>
-      <c r="G27" s="20"/>
-      <c r="H27" s="20"/>
-      <c r="I27" s="20"/>
-      <c r="J27" s="20"/>
-      <c r="K27" s="20"/>
-      <c r="L27" s="20"/>
-      <c r="M27" s="20"/>
-    </row>
-    <row r="28" spans="1:13">
-      <c r="A28" s="21"/>
-    </row>
-    <row r="29" spans="1:13" s="18" customFormat="1">
-      <c r="A29" s="23"/>
-    </row>
-    <row r="30" spans="1:13">
-      <c r="A30" s="21"/>
-    </row>
-    <row r="31" spans="1:13">
-      <c r="A31" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="B31" s="19" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" ht="52">
-      <c r="A32" s="20" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" ht="39">
-      <c r="A33" s="20" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" ht="26">
-      <c r="A34" s="20" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" ht="26">
-      <c r="A35" s="20" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" ht="26">
-      <c r="A36" s="20" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" ht="26">
-      <c r="A37" s="20" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" ht="52">
-      <c r="A38" s="20" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1">
-      <c r="A39" s="20" t="s">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
 </file>
--- a/Study Materials/ParticipantData/User14.xlsx
+++ b/Study Materials/ParticipantData/User14.xlsx
@@ -2468,8 +2468,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <dimension ref="A1:M39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
